--- a/public/import/data_kelulusan.xlsx
+++ b/public/import/data_kelulusan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wahyudi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\gais\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,24 +71,6 @@
     <t>syahrun@gmail.com</t>
   </si>
   <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>tempat_lahir</t>
-  </si>
-  <si>
-    <t>tanggal_lahir</t>
-  </si>
-  <si>
-    <t>nis</t>
-  </si>
-  <si>
-    <t>nisn</t>
-  </si>
-  <si>
-    <t>kompetensi_keahlian_id</t>
-  </si>
-  <si>
     <t>activity_id</t>
   </si>
   <si>
@@ -105,6 +87,24 @@
   </si>
   <si>
     <t>1706510103-RPL1_30_SYAHRUNIMAH.pdf</t>
+  </si>
+  <si>
+    <t>place_of_birth</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>student_parent_number</t>
+  </si>
+  <si>
+    <t>national_student_parent_number</t>
+  </si>
+  <si>
+    <t>competency_of_expertise_id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -492,28 +492,28 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
